--- a/Example.xlsx
+++ b/Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a455b7adf12e58ee/Desktop/coding/excel-plugin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{D90758A4-C781-4485-AEA4-B17D92D396AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33A805F6-05B7-4FEC-951E-EE6A822F88A9}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{D90758A4-C781-4485-AEA4-B17D92D396AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{702998FE-0A21-4200-BC95-990C529297A0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{22E71145-7D4F-402C-B7F1-F2A80201CA46}"/>
   </bookViews>
@@ -60,12 +60,6 @@
     <t xml:space="preserve">Important note: this file does NOT contain any macros, to make the formula work you have to import the SimFinAPI.bas file. For full instructions go to: https://github.com/SimFin/simfin-excel-plugin </t>
   </si>
   <si>
-    <t>A full list of all available line-items can be found here: https://app.simfin.com/developers/columns</t>
-  </si>
-  <si>
-    <t>You can find your API-key on https://app.simfin.com/data-api, this is just an example</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
@@ -73,6 +67,12 @@
   </si>
   <si>
     <t>If you want to retrieve TTM data, the allowed periods are Q1, Q2, Q3 and Q4</t>
+  </si>
+  <si>
+    <t>A full list of all available line-items can be found here: https://app.simfin.com/excel</t>
+  </si>
+  <si>
+    <t>You can find your API-key on https://app.simfin.com/excel, this is just an example</t>
   </si>
 </sst>
 </file>
@@ -264,6 +264,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -567,7 +571,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,7 +618,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -633,15 +637,15 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11" s="1" t="str">
         <f>D11</f>
@@ -879,7 +883,7 @@
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">

--- a/Example.xlsx
+++ b/Example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a455b7adf12e58ee/Desktop/coding/excel-plugin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{D90758A4-C781-4485-AEA4-B17D92D396AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{702998FE-0A21-4200-BC95-990C529297A0}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{D90758A4-C781-4485-AEA4-B17D92D396AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CF85536-4ABF-4102-BF58-1E9C7E2EBFBA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{22E71145-7D4F-402C-B7F1-F2A80201CA46}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>API-key</t>
   </si>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>You can find your API-key on https://app.simfin.com/excel, this is just an example</t>
+  </si>
+  <si>
+    <t>Last Closing Price</t>
+  </si>
+  <si>
+    <t>Highest Price</t>
+  </si>
+  <si>
+    <t>Market-Cap</t>
+  </si>
+  <si>
+    <t>EV/Sales - ttm</t>
   </si>
 </sst>
 </file>
@@ -83,7 +95,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +127,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -224,7 +244,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -247,6 +267,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Eingabe" xfId="2" builtinId="20"/>
@@ -267,6 +289,10 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -568,10 +594,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F24B0C-9514-466F-B79F-E470825240A9}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,13 +907,215 @@
         <v>13576</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D19" s="10">
+        <f>DATE(D12,12,14)</f>
+        <v>41257</v>
+      </c>
+      <c r="E19" s="10">
+        <f>DATE(E12,12,16)</f>
+        <v>41624</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" ref="E19:L19" si="4">DATE(F12,12,15)</f>
+        <v>41988</v>
+      </c>
+      <c r="G19" s="10">
+        <f t="shared" si="4"/>
+        <v>42353</v>
+      </c>
+      <c r="H19" s="10">
+        <f t="shared" si="4"/>
+        <v>42719</v>
+      </c>
+      <c r="I19" s="10">
+        <f t="shared" si="4"/>
+        <v>43084</v>
+      </c>
+      <c r="J19" s="10">
+        <f>DATE(J12,12,14)</f>
+        <v>43448</v>
+      </c>
+      <c r="K19" s="10">
+        <f>DATE(K12,12,16)</f>
+        <v>43815</v>
+      </c>
+      <c r="L19" s="10">
+        <f t="shared" si="4"/>
+        <v>44180</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <f>SimFinPrices($B$9,D$19,$C20,$B$6,FALSE)</f>
+        <v>26.81</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:L21" si="5">SimFinPrices($B$9,E$19,$C20,$B$6,FALSE)</f>
+        <v>36.880000000000003</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="5"/>
+        <v>46.67</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="5"/>
+        <v>55.2</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="5"/>
+        <v>62.58</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="5"/>
+        <v>86.85</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="5"/>
+        <v>106.03</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="5"/>
+        <v>155.53</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="5"/>
+        <v>214.13</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <f>SimFinPrices($B$9,D$19,$C21,$B$6,FALSE)</f>
+        <v>27.13</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="5"/>
+        <v>47.67</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="5"/>
+        <v>55.9</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="5"/>
+        <v>63.15</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="5"/>
+        <v>87.09</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="5"/>
+        <v>109.26</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="5"/>
+        <v>155.9</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="5"/>
+        <v>215.42</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ref="D22:D23" si="6">SimFinPrices($B$9,D$19,$C22,$B$6,FALSE)</f>
+        <v>225793820000</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ref="D22:L23" si="7">SimFinPrices($B$9,E$19,$C22,$B$6,FALSE)</f>
+        <v>307800480000</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="7"/>
+        <v>385260850000</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="7"/>
+        <v>440827200000</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="7"/>
+        <v>487122720000</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="7"/>
+        <v>670482000000</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="7"/>
+        <v>813909472578</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="7"/>
+        <v>1186508137768</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="7"/>
+        <v>1618929001842</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="6"/>
+        <v>2.3645999999999998</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="7"/>
+        <v>3.02427</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="7"/>
+        <v>3.4947599999999999</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="7"/>
+        <v>4.1873899999999997</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="7"/>
+        <v>4.5832499999999996</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="7"/>
+        <v>6.2258500000000003</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="7"/>
+        <v>6.5641400000000001</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="7"/>
+        <v>8.6228499999999997</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="7"/>
+        <v>10.49869</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
